--- a/raw data.xlsx
+++ b/raw data.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/80ae6e062d96c903/2425.1b/Lab4 - NMR/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/80ae6e062d96c903/2425.1b/Lab4 - NMR/data ^0 processing NMR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{4B42FCC0-893C-46BE-B065-B244A09CB637}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7DD1F331-9C4D-4DDD-8F21-7A2537B2762F}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="8_{4B42FCC0-893C-46BE-B065-B244A09CB637}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9DC16C5E-5B36-49EF-BCB4-1F79FF26FC16}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="4" xr2:uid="{42C01B46-CB0B-4915-B8B4-86EC8721BF47}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="2" xr2:uid="{42C01B46-CB0B-4915-B8B4-86EC8721BF47}"/>
   </bookViews>
   <sheets>
     <sheet name="1 B" sheetId="1" r:id="rId1"/>
     <sheet name="2 T1" sheetId="2" r:id="rId2"/>
-    <sheet name="3" sheetId="3" r:id="rId3"/>
-    <sheet name="3.1 currie" sheetId="4" r:id="rId4"/>
-    <sheet name="4 T2" sheetId="5" r:id="rId5"/>
+    <sheet name="3.1 currie" sheetId="4" r:id="rId3"/>
+    <sheet name="4 T2" sheetId="5" r:id="rId4"/>
+    <sheet name="3" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -74,8 +74,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="168" formatCode="0.0"/>
-    <numFmt numFmtId="169" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -171,26 +171,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -209,6 +206,425 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2 T1'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>amplitude (x2) (V)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'2 T1'!$A$2:$A$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'2 T1'!$B$2:$B$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>9.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5AAF-46C0-8F9C-EF78B72157B5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="351767936"/>
+        <c:axId val="351772256"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="351767936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="351772256"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="351772256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="351767936"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -337,10 +753,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'3.1 currie'!$A$2:$A$29</c:f>
+              <c:f>'3.1 currie'!$A$2:$A$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>2.6869999999999998</c:v>
                 </c:pt>
@@ -359,55 +775,55 @@
                 <c:pt idx="5">
                   <c:v>2.202</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.403</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.403</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.403</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.403</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.99299999999999999</c:v>
+                </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.403</c:v>
+                  <c:v>0.99299999999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.403</c:v>
+                  <c:v>0.99299999999999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.403</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.403</c:v>
-                </c:pt>
-                <c:pt idx="15">
                   <c:v>0.99299999999999999</c:v>
                 </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.99299999999999999</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.99299999999999999</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.99299999999999999</c:v>
+                <c:pt idx="14" formatCode="0.000">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="0.000">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="0.000">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="0.000">
+                  <c:v>0.189</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="0.000">
+                  <c:v>0.189</c:v>
                 </c:pt>
                 <c:pt idx="19" formatCode="0.000">
-                  <c:v>0.62</c:v>
+                  <c:v>0.189</c:v>
                 </c:pt>
                 <c:pt idx="20" formatCode="0.000">
-                  <c:v>0.62</c:v>
+                  <c:v>1.778</c:v>
                 </c:pt>
                 <c:pt idx="21" formatCode="0.000">
-                  <c:v>0.62</c:v>
+                  <c:v>1.778</c:v>
                 </c:pt>
                 <c:pt idx="22" formatCode="0.000">
-                  <c:v>0.189</c:v>
-                </c:pt>
-                <c:pt idx="23" formatCode="0.000">
-                  <c:v>0.189</c:v>
-                </c:pt>
-                <c:pt idx="24" formatCode="0.000">
-                  <c:v>0.189</c:v>
-                </c:pt>
-                <c:pt idx="25" formatCode="0.000">
-                  <c:v>1.778</c:v>
-                </c:pt>
-                <c:pt idx="26" formatCode="0.000">
-                  <c:v>1.778</c:v>
-                </c:pt>
-                <c:pt idx="27" formatCode="0.000">
                   <c:v>1.778</c:v>
                 </c:pt>
               </c:numCache>
@@ -415,10 +831,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'3.1 currie'!$B$2:$B$29</c:f>
+              <c:f>'3.1 currie'!$B$2:$B$24</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>8.6</c:v>
                 </c:pt>
@@ -437,55 +853,55 @@
                 <c:pt idx="5">
                   <c:v>6.9</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.3</c:v>
+                </c:pt>
                 <c:pt idx="11">
-                  <c:v>5</c:v>
+                  <c:v>3.3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.5</c:v>
+                  <c:v>3.3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.5</c:v>
+                  <c:v>3.3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.5999999999999996</c:v>
+                  <c:v>2.2000000000000002</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.3</c:v>
+                  <c:v>2.2000000000000002</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.3</c:v>
+                  <c:v>2.2000000000000002</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3.3</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.3</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.2000000000000002</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.2000000000000002</c:v>
+                  <c:v>5.7</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.2000000000000002</c:v>
+                  <c:v>5.7</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>5.7</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>5.7</c:v>
-                </c:pt>
-                <c:pt idx="27">
                   <c:v>5.6</c:v>
                 </c:pt>
               </c:numCache>
@@ -718,6 +1134,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -1234,7 +1690,564 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>64770</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>80010</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{366F149C-97A0-C38B-39CB-1F356F68E63B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1273,6 +2286,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1595,7 +2612,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C16"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1623,7 +2640,9 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="1"/>
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
       <c r="B3" s="1">
         <v>0.52700000000000002</v>
       </c>
@@ -1632,7 +2651,9 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="1"/>
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
       <c r="B4" s="1">
         <v>1.17</v>
       </c>
@@ -1641,18 +2662,20 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2">
+      <c r="A5" s="6">
+        <v>1</v>
+      </c>
+      <c r="B5" s="6">
         <v>2.2200000000000002</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="6">
         <v>1.919</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
     </row>
     <row r="7" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
@@ -1666,7 +2689,9 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="1"/>
+      <c r="A8" s="1">
+        <v>2</v>
+      </c>
       <c r="B8" s="1">
         <v>0.52700000000000002</v>
       </c>
@@ -1675,7 +2700,9 @@
       </c>
     </row>
     <row r="9" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="1"/>
+      <c r="A9" s="1">
+        <v>2</v>
+      </c>
       <c r="B9" s="1">
         <v>1.17</v>
       </c>
@@ -1684,18 +2711,20 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2">
+      <c r="A10" s="6">
+        <v>2</v>
+      </c>
+      <c r="B10" s="6">
         <v>2.2200000000000002</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="6">
         <v>1.9410000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
     </row>
     <row r="12" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
@@ -1709,7 +2738,9 @@
       </c>
     </row>
     <row r="13" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="1"/>
+      <c r="A13" s="1">
+        <v>3</v>
+      </c>
       <c r="B13" s="1">
         <v>0.52700000000000002</v>
       </c>
@@ -1718,7 +2749,9 @@
       </c>
     </row>
     <row r="14" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="1"/>
+      <c r="A14" s="1">
+        <v>3</v>
+      </c>
       <c r="B14" s="1">
         <v>1.17</v>
       </c>
@@ -1727,18 +2760,20 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2">
+      <c r="A15" s="6">
+        <v>3</v>
+      </c>
+      <c r="B15" s="6">
         <v>2.2200000000000002</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="6">
         <v>1.909</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -1761,7 +2796,7 @@
   <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1791,16 +2826,16 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
+      <c r="A4" s="6">
         <v>13</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="6">
         <v>9.4</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
     </row>
     <row r="6" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
@@ -1819,16 +2854,16 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
+      <c r="A8" s="6">
         <v>5</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="6">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
     </row>
     <row r="10" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
@@ -1847,16 +2882,16 @@
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
+      <c r="A12" s="6">
         <v>4</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="6">
         <v>7.2</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
     </row>
     <row r="14" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
@@ -1875,16 +2910,16 @@
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
+      <c r="A16" s="6">
         <v>3</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="6">
         <v>6.4</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
     </row>
     <row r="18" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
@@ -1903,16 +2938,16 @@
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="2">
+      <c r="A20" s="6">
         <v>2</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="6">
         <v>4.9000000000000004</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
     </row>
     <row r="22" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
@@ -1931,16 +2966,16 @@
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="2">
+      <c r="A24" s="6">
         <v>1</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="6">
         <v>3.1</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
     </row>
     <row r="26" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
@@ -1959,16 +2994,16 @@
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="2">
+      <c r="A28" s="6">
         <v>0.5</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28" s="6">
         <v>1.8</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
+      <c r="A29" s="7"/>
+      <c r="B29" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -1988,10 +3023,243 @@
     <mergeCell ref="B12:B13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14F7E3A1-EB4C-4886-8086-75D05E77C74F}">
+  <dimension ref="A1:B24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" customWidth="1"/>
+    <col min="2" max="2" width="29.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="4">
+        <v>2.6869999999999998</v>
+      </c>
+      <c r="B2" s="2">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="4">
+        <v>2.6869999999999998</v>
+      </c>
+      <c r="B3" s="2">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <v>2.6869999999999998</v>
+      </c>
+      <c r="B4" s="3">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>2.202</v>
+      </c>
+      <c r="B5" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>2.202</v>
+      </c>
+      <c r="B6" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>2.202</v>
+      </c>
+      <c r="B7" s="3">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>1.403</v>
+      </c>
+      <c r="B8" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>1.403</v>
+      </c>
+      <c r="B9" s="2">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>1.403</v>
+      </c>
+      <c r="B10" s="2">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>1.403</v>
+      </c>
+      <c r="B11" s="3">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="B12" s="2">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="B13" s="2">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="B14" s="2">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="B15" s="3">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="5">
+        <v>0.62</v>
+      </c>
+      <c r="B16" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="5">
+        <v>0.62</v>
+      </c>
+      <c r="B17" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="5">
+        <v>0.62</v>
+      </c>
+      <c r="B18" s="3">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="5">
+        <v>0.189</v>
+      </c>
+      <c r="B19" s="2">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="5">
+        <v>0.189</v>
+      </c>
+      <c r="B20" s="2">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="5">
+        <v>0.189</v>
+      </c>
+      <c r="B21" s="3">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="5">
+        <v>1.778</v>
+      </c>
+      <c r="B22" s="2">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="5">
+        <v>1.778</v>
+      </c>
+      <c r="B23" s="2">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="5">
+        <v>1.778</v>
+      </c>
+      <c r="B24" s="2">
+        <v>5.6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C52932FF-0767-42CD-9FCB-875FADB017E7}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F54C796F-6E9E-48D7-9E01-34363C967A7B}">
   <dimension ref="A1:B9"/>
   <sheetViews>
@@ -2038,16 +3306,16 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
+      <c r="A5" s="6">
         <v>2.7480000000000002</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="6">
         <v>8.6</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
     </row>
     <row r="7" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
@@ -2080,256 +3348,4 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14F7E3A1-EB4C-4886-8086-75D05E77C74F}">
-  <dimension ref="A1:B29"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="25.109375" customWidth="1"/>
-    <col min="2" max="2" width="29.109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="6">
-        <v>2.6869999999999998</v>
-      </c>
-      <c r="B2" s="4">
-        <v>8.6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="6">
-        <v>2.6869999999999998</v>
-      </c>
-      <c r="B3" s="4">
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="6">
-        <v>2.6869999999999998</v>
-      </c>
-      <c r="B4" s="5">
-        <v>8.4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="7">
-        <v>2.202</v>
-      </c>
-      <c r="B5" s="4">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="7">
-        <v>2.202</v>
-      </c>
-      <c r="B6" s="4">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="7">
-        <v>2.202</v>
-      </c>
-      <c r="B7" s="5">
-        <v>6.9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="7"/>
-      <c r="B8" s="4"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="7"/>
-      <c r="B9" s="4"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="7"/>
-      <c r="B10" s="4"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="7"/>
-      <c r="B11" s="4"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="7"/>
-      <c r="B12" s="5"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="7">
-        <v>1.403</v>
-      </c>
-      <c r="B13" s="8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="7">
-        <v>1.403</v>
-      </c>
-      <c r="B14" s="8">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="7">
-        <v>1.403</v>
-      </c>
-      <c r="B15" s="8">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="7">
-        <v>1.403</v>
-      </c>
-      <c r="B16" s="9">
-        <v>4.5999999999999996</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="7">
-        <v>0.99299999999999999</v>
-      </c>
-      <c r="B17" s="8">
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="7">
-        <v>0.99299999999999999</v>
-      </c>
-      <c r="B18" s="8">
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="7">
-        <v>0.99299999999999999</v>
-      </c>
-      <c r="B19" s="8">
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="7">
-        <v>0.99299999999999999</v>
-      </c>
-      <c r="B20" s="9">
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="10">
-        <v>0.62</v>
-      </c>
-      <c r="B21" s="8">
-        <v>2.2000000000000002</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="10">
-        <v>0.62</v>
-      </c>
-      <c r="B22" s="8">
-        <v>2.2000000000000002</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="10">
-        <v>0.62</v>
-      </c>
-      <c r="B23" s="9">
-        <v>2.2000000000000002</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="10">
-        <v>0.189</v>
-      </c>
-      <c r="B24" s="8">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="10">
-        <v>0.189</v>
-      </c>
-      <c r="B25" s="8">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="10">
-        <v>0.189</v>
-      </c>
-      <c r="B26" s="9">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="10">
-        <v>1.778</v>
-      </c>
-      <c r="B27" s="8">
-        <v>5.7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="10">
-        <v>1.778</v>
-      </c>
-      <c r="B28" s="8">
-        <v>5.7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="10">
-        <v>1.778</v>
-      </c>
-      <c r="B29" s="8">
-        <v>5.6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C52932FF-0767-42CD-9FCB-875FADB017E7}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>